--- a/biology/Médecine/Biostase/Biostase.xlsx
+++ b/biology/Médecine/Biostase/Biostase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biostase ou animation suspendue est un état assimilable à l'hibernation qui est aussi appelé « arrêt réversible de la vie ».
 </t>
@@ -511,7 +523,9 @@
           <t>Définition du concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'état de biostase permet théoriquement de figer totalement l'organisme en l'état à un instant T et de le conserver ainsi indéfiniment. 
 Il n'existe pas à l'heure actuelle de technique capable d'arrêter et relancer à volonté le métabolisme. Même l'hibernation dans le monde animal ne fait que le ralentir au minimum sans le suspendre totalement (sans compter le taux de mortalité durant cette période chez les espèces qui hibernent).
@@ -546,7 +560,9 @@
           <t>Techniques actuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Replacement d'une partie de l'eau de l'organisme par un glycol tel l’éthylène glycol ou par le diméthylsulfoxyde puis cryogénisation.
 Abaissement mesuré de la température qui met le patient dans un état d'hibernation contrôlé par hypothermie.
@@ -581,13 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cryogénisation
-La biostase par cryogénisation fonctionne actuellement sur des organismes simples tels les spermatozoïdes.
-Diminution des fonctions vitales
-La biostase par mise en stase ou hibernation contrôlée a été accidentellement observée à plusieurs reprises dans des accidents[1] ou par des gourous tenant de techniques de méthodes de parapsychologie, mais n'a pas encore officiellement pu être complètement reproduite en laboratoire. Certaines techniques médicales l'utilisent partiellement afin de diminuer les réponses vitales des patients et ainsi limiter les dégâts lors de traitements médicaux[2].
-Cependant, vu que ce phénomène est très courant dans le règne animal jusque chez les mammifères, sous forme d'hibernation, cette piste reste très prometteuse[3].
-La voie chimique
-Que cela soit par une forme d'anesthésique qui diminue toutes les fonctions vitales ou par remplacement partiel ou total du sang, il existe de nombreuses méthodes éprouvées mais avec encore un haut taux d'échec. La majorité de ces méthodes n'a encore été utilisée que sur les animaux[4].
+          <t>Cryogénisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biostase par cryogénisation fonctionne actuellement sur des organismes simples tels les spermatozoïdes.
 </t>
         </is>
       </c>
@@ -613,19 +629,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Science-fiction</t>
+          <t>Réalité</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Biostase dans la fiction 
-Notions théoriques
-La cryogénisation et la biostasie sont des thèmes récurrents dans ce domaine. La cryogénisation modifie l'état biologique du corps, alors que la biostasie a pour principe d'empêcher tout changement au niveau atomique, sans qu'il y ait de processus de réveil ou de remise en route.
-Une des notions clef de la science-fiction est l'état de stase absolu, possiblement auto-entretenu, et par lequel une personne ou objet serait indéfiniment protégé. En théorie, un être ou un objet plongé en stase reprend instantanément toutes ses propriétés lorsqu'il en sort — la stase est une sorte de suspension du temps.
-Nexialisme
-Le nexialisme est un concept de science-fiction, apparenté à la notion d'Interdisciplinarité.
-Dans cette optique, on ne pourra créer des modules de biostase que par la maîtrise de plusieurs sciences. En effet, l'obstacle reconnu actuellement comme le plus important est la maîtrise d'un nombre suffisant de paramètres. Le problème principal est que ces paramètres sont répartis dans plusieurs disciplines très distinctes : médecine, biologie animale et humaine, chimie organique, physique, mécanique des fluides, techniques de réfrigérations, neurobiologie et informatique. Nous avons probablement tous les éléments de connaissance pour aboutir mais pas les personnes capables de les rassembler et de coordonner la recherche[5],[6].
-La parapsychologie peut éventuellement contribuer à rajouter une dimension mystique qui risque fort d'amener à une impasse[7].
+          <t>Diminution des fonctions vitales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biostase par mise en stase ou hibernation contrôlée a été accidentellement observée à plusieurs reprises dans des accidents ou par des gourous tenant de techniques de méthodes de parapsychologie, mais n'a pas encore officiellement pu être complètement reproduite en laboratoire. Certaines techniques médicales l'utilisent partiellement afin de diminuer les réponses vitales des patients et ainsi limiter les dégâts lors de traitements médicaux.
+Cependant, vu que ce phénomène est très courant dans le règne animal jusque chez les mammifères, sous forme d'hibernation, cette piste reste très prometteuse.
 </t>
         </is>
       </c>
@@ -651,21 +667,207 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Réalité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La voie chimique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Que cela soit par une forme d'anesthésique qui diminue toutes les fonctions vitales ou par remplacement partiel ou total du sang, il existe de nombreuses méthodes éprouvées mais avec encore un haut taux d'échec. La majorité de ces méthodes n'a encore été utilisée que sur les animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Science-fiction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Biostase dans la fiction 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Science-fiction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Notions théoriques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cryogénisation et la biostasie sont des thèmes récurrents dans ce domaine. La cryogénisation modifie l'état biologique du corps, alors que la biostasie a pour principe d'empêcher tout changement au niveau atomique, sans qu'il y ait de processus de réveil ou de remise en route.
+Une des notions clef de la science-fiction est l'état de stase absolu, possiblement auto-entretenu, et par lequel une personne ou objet serait indéfiniment protégé. En théorie, un être ou un objet plongé en stase reprend instantanément toutes ses propriétés lorsqu'il en sort — la stase est une sorte de suspension du temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Science-fiction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nexialisme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nexialisme est un concept de science-fiction, apparenté à la notion d'Interdisciplinarité.
+Dans cette optique, on ne pourra créer des modules de biostase que par la maîtrise de plusieurs sciences. En effet, l'obstacle reconnu actuellement comme le plus important est la maîtrise d'un nombre suffisant de paramètres. Le problème principal est que ces paramètres sont répartis dans plusieurs disciplines très distinctes : médecine, biologie animale et humaine, chimie organique, physique, mécanique des fluides, techniques de réfrigérations, neurobiologie et informatique. Nous avons probablement tous les éléments de connaissance pour aboutir mais pas les personnes capables de les rassembler et de coordonner la recherche,.
+La parapsychologie peut éventuellement contribuer à rajouter une dimension mystique qui risque fort d'amener à une impasse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Littérature
-1925 : La Sphère d'or, roman d'Erle Cox
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1925 : La Sphère d'or, roman d'Erle Cox
 1968 : 2001 : L'Odyssée de l'espace (roman), roman d'Arthur C. Clarke
 1968 : La Nuit des temps, roman de René Barjavel
 1974 : La Guerre éternelle, roman de Joe Haldeman. Les champs de stase sont les boucliers ultimes puisqu'ils interdisent la circulation de l'électricité, les réactions chimiques, et tout mouvement supérieur à 60 kilomètres par heure. Même une explosion atomique à leur contact direct ne se propage pas à l'intérieur. Cette force est en même temps leur défaut : toute communication est impossible avec l'extérieur, et la moindre éraflure dans les tenues spéciales signifie la mort pour ses occupants (puisque leurs réactions biologiques et neuronales sont annihilées). Ce handicap est corrigé après le traité de paix humains-Taurans
 1985 : La Maison des mères, roman de Frank Herbert (cycle de Dune) : les capsules anentropiques protègent leur contenu pendant plus de cinq mille ans ; les chambres anentropiques peuvent même accueillir des caves à vin ou des pièces de mobilier de valeur
 1986 : La Captive du temps perdu, roman de Vernor Vinge
-2013 : Atomka, roman de Franck Thilliez
-Cinéma
-1939 :  Buck Rogers, feuilleton cinéma de Ford Beebe et Saul A. Goodkind : Buck Rogers et Buddy Wade sont mis en animation suspendue grâce à un gaz créé par le professeur Wade, le père de Buddy
+2013 : Atomka, roman de Franck Thilliez</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1939 :  Buck Rogers, feuilleton cinéma de Ford Beebe et Saul A. Goodkind : Buck Rogers et Buddy Wade sont mis en animation suspendue grâce à un gaz créé par le professeur Wade, le père de Buddy
 1968 : La Planète des singes, film de Franklin Schaffner
 1968 : 2001, l'Odyssée de l'espace, de Stanley Kubrick
 1969 : Hibernatus, de Édouard Molinaro, dans lequel un homme est miraculeusement cryogénisé dans un glacier en 1905 et réveillé en 1970.
@@ -679,15 +881,83 @@
 2013 : Oblivion, film de Joseph Kosinski
 2014 : Interstellar, film de Christopher Nolan
 2016 : Passengers, film de Morten Tyldum
-2016 : Realive (Proyecto Lazaro), film de Mateo Gil
-Télévision
-1963 - Présent : Doctor Who (Notamment The Waters Of Mars)
+2016 : Realive (Proyecto Lazaro), film de Mateo Gil</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1963 - Présent : Doctor Who (Notamment The Waters Of Mars)
 1966 : l'univers de Star Trek fourmille de cabines de stase
 1999 : la série d'animation Futurama prend comme point de départ la stase de son protagoniste Philip J. Fry et son réveil mille ans plus tard
 2005 : Avatar, le dernier maître de l'air, série de dessins animés. Le personnage de Aang se cryogénise sous l'océan grâce à ses pouvoirs d'Avatar et reste prisonnier d'un glacier pendant cent ans.
-2015 : Wayward Pines, série télévisée (basée sur des ouvrages de Blake Crouch) où des centaines de personnes sont cryogénisés pour être réveillés 2000 ans plus tard, alors que leur village est entouré de monstres
-Jeux vidéo
-2001-... : Halo (saga) : dans l'univers de Halo, la cryogénie est utilisée pour les voyages interstellaires afin de préserver l'équipage.
+2015 : Wayward Pines, série télévisée (basée sur des ouvrages de Blake Crouch) où des centaines de personnes sont cryogénisés pour être réveillés 2000 ans plus tard, alors que leur village est entouré de monstres</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Biostase</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biostase</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2001-... : Halo (saga) : dans l'univers de Halo, la cryogénie est utilisée pour les voyages interstellaires afin de préserver l'équipage.
 2015 : Fallout 4 : à la suite d'une explosion nucléaire, les protagonistes sont cryogénisés au sein de l'abri 111.</t>
         </is>
       </c>
